--- a/data/trans_dic/iP30KDB7_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDB7_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>70,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>71,16%</t>
+          <t>49,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,6%</t>
+          <t>60,19%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,42; 61,09</t>
+          <t>60,17; 79,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60,73; 80,69</t>
+          <t>37,55; 61,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,32; 67,81</t>
+          <t>52,11; 68,55</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>57,97%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>57,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>60,49%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,65; 64,34</t>
+          <t>56,79; 69,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,17; 68,97</t>
+          <t>51,37; 64,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,11; 64,27</t>
+          <t>55,87; 64,85</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>56,18%</t>
+          <t>56,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>57,1%</t>
+          <t>56,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,61%</t>
+          <t>56,55%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,01; 62,38</t>
+          <t>49,69; 63,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,02; 63,69</t>
+          <t>50,09; 63,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,18; 61,27</t>
+          <t>51,91; 61,32</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,58%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,11%</t>
+          <t>49,68%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,4; 58,55</t>
+          <t>33,78; 55,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,12; 57,16</t>
+          <t>45,32; 59,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,16; 56,33</t>
+          <t>42,06; 54,61</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>55,4%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>54,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>56,01%</t>
+          <t>54,9%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,46; 58,47</t>
+          <t>47,22; 59,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,65; 61,13</t>
+          <t>50,76; 58,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,34; 58,42</t>
+          <t>50,82; 57,56</t>
         </is>
       </c>
     </row>
